--- a/data/trans_dic/IP2001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,54; 14,56</t>
+          <t>6,15; 12,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,19; 18,43</t>
+          <t>7,8; 15,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 17,27</t>
+          <t>7,67; 14,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,05</t>
+          <t>3,36; 10,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 16,47</t>
+          <t>5,41; 11,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 14,35</t>
+          <t>9,67; 17,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 15,74</t>
+          <t>11,24; 18,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,17</t>
+          <t>2,68; 7,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,67</t>
+          <t>6,56; 10,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 15,17</t>
+          <t>10,09; 15,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 15,13</t>
+          <t>10,26; 15,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,77</t>
+          <t>3,71; 7,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>6,12%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,61</t>
+          <t>8,54; 14,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,36</t>
+          <t>11,19; 18,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 14,11</t>
+          <t>10,33; 17,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 10,2</t>
+          <t>5,12; 10,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,62</t>
+          <t>9,62; 16,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,67; 17,09</t>
+          <t>7,91; 14,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,24; 18,73</t>
+          <t>8,94; 15,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,76</t>
+          <t>3,09; 7,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,96</t>
+          <t>10,22; 14,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,09; 15,1</t>
+          <t>10,28; 15,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,08</t>
+          <t>10,54; 15,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,6</t>
+          <t>4,5; 7,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,52 +666,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,53</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0; 1,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,89</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,74</t>
+          <t>0; 2,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,11</t>
+          <t>0; 1,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,14</t>
+          <t>0; 1,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,98</t>
+          <t>0; 1,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,32</t>
+          <t>0,0; 10,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,86</t>
+          <t>0; 0,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,5</t>
+          <t>0; 0,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,28</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,04</t>
+          <t>0,0; 5,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,61</t>
+          <t>2,84; 6,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,36</t>
+          <t>4,22; 9,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,67; 14,11</t>
+          <t>4,58; 9,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 10,2</t>
+          <t>2,98; 8,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,62</t>
+          <t>2,72; 7,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 17,09</t>
+          <t>5,84; 11,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 18,73</t>
+          <t>5,99; 12,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,76</t>
+          <t>1,68; 6,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,96</t>
+          <t>3,12; 6,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,09; 15,1</t>
+          <t>5,68; 9,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,08</t>
+          <t>5,77; 9,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,6</t>
+          <t>3,02; 6,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 14,56</t>
+          <t>9,78; 19,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 18,43</t>
+          <t>8,92; 17,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 17,27</t>
+          <t>12,25; 21,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,05</t>
+          <t>3,71; 10,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 16,47</t>
+          <t>9,5; 19,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 14,35</t>
+          <t>10,67; 20,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 15,74</t>
+          <t>11,9; 20,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,17</t>
+          <t>3,53; 10,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,67</t>
+          <t>10,5; 16,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 15,17</t>
+          <t>10,93; 17,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 15,13</t>
+          <t>13,5; 19,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,77</t>
+          <t>4,53; 9,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,58%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 9,72</t>
+          <t>8,71; 15,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,4</t>
+          <t>11,55; 20,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 11,71</t>
+          <t>6,75; 14,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,88</t>
+          <t>4,63; 10,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 10,33</t>
+          <t>9,43; 17,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,02</t>
+          <t>7,1; 14,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,58</t>
+          <t>8,79; 16,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,99</t>
+          <t>2,46; 6,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 9,44</t>
+          <t>9,86; 15,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,79</t>
+          <t>10,71; 16,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 11,57</t>
+          <t>8,49; 14,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,49</t>
+          <t>3,99; 7,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 9,81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 11,52</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 11,84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 7,69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 10,31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 11,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 12,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 6,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 9,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 10,73</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 11,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,39; 6,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP2001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,49</t>
+          <t>0,0; 4,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,67</t>
+          <t>0,0; 10,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,63</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,78</t>
+          <t>2,64; 6,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 9,64</t>
+          <t>4,31; 9,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,91</t>
+          <t>4,79; 10,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,88</t>
+          <t>2,99; 9,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,17</t>
+          <t>2,85; 7,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,8</t>
+          <t>5,69; 11,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,32</t>
+          <t>5,71; 12,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,69</t>
+          <t>1,65; 6,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,15</t>
+          <t>3,17; 6,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,95</t>
+          <t>5,6; 9,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,85</t>
+          <t>5,73; 10,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,74</t>
+          <t>3,03; 6,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 19,08</t>
+          <t>9,58; 19,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,92; 17,7</t>
+          <t>9,21; 18,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,54</t>
+          <t>12,63; 22,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,41</t>
+          <t>4,0; 10,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,5; 19,43</t>
+          <t>9,53; 19,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 20,22</t>
+          <t>11,04; 20,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,9; 20,52</t>
+          <t>11,73; 20,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 10,34</t>
+          <t>3,74; 10,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,5; 16,87</t>
+          <t>10,85; 17,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,93; 17,38</t>
+          <t>10,58; 17,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,93</t>
+          <t>13,44; 19,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,12</t>
+          <t>4,51; 9,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 15,93</t>
+          <t>8,55; 16,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,31</t>
+          <t>11,41; 20,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 14,17</t>
+          <t>6,47; 14,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,22</t>
+          <t>4,44; 10,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 17,26</t>
+          <t>9,65; 17,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 14,84</t>
+          <t>7,54; 15,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 16,72</t>
+          <t>8,66; 17,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,28</t>
+          <t>2,52; 6,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 15,78</t>
+          <t>10,05; 15,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 16,62</t>
+          <t>10,7; 16,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,49; 14,21</t>
+          <t>8,47; 14,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,64</t>
+          <t>3,92; 7,55</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 9,81</t>
+          <t>6,44; 9,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,52</t>
+          <t>7,61; 11,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,84</t>
+          <t>8,03; 11,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,69</t>
+          <t>4,54; 7,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,31</t>
+          <t>6,73; 10,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,36</t>
+          <t>7,48; 11,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,6</t>
+          <t>8,81; 12,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,16</t>
+          <t>3,32; 5,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,39</t>
+          <t>7,01; 9,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,16; 10,73</t>
+          <t>8,17; 10,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,78; 11,42</t>
+          <t>8,74; 11,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,48</t>
+          <t>4,2; 6,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -666,44 +666,44 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,7%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,51%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,33%</t>
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -724,44 +724,44 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,76</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,28</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,35</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 11,44</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,49</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 1,39</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,18</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,58</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 2,18</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,76</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,35</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,75</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0; 0,81</t>
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,43%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>6,47%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>7,04%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,5%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,47%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,57%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,69</t>
+          <t>2,77; 7,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,79</t>
+          <t>5,74; 12,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,05</t>
+          <t>5,95; 12,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,08</t>
+          <t>1,51; 6,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,31</t>
+          <t>2,59; 6,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 11,6</t>
+          <t>4,23; 9,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 12,27</t>
+          <t>4,47; 10,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,47</t>
+          <t>3,07; 9,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,04</t>
+          <t>3,13; 5,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,66</t>
+          <t>5,65; 9,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,04</t>
+          <t>5,93; 9,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,67</t>
+          <t>2,84; 6,68</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>13,6%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>13,1%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>16,98%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,59%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13,89%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>15,02%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>15,85%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,42%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 19,18</t>
+          <t>9,67; 19,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 18,29</t>
+          <t>11,22; 20,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 22,02</t>
+          <t>12,07; 21,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,86</t>
+          <t>3,74; 10,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 19,64</t>
+          <t>8,89; 18,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,04; 20,58</t>
+          <t>8,91; 18,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 20,46</t>
+          <t>12,8; 22,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 10,21</t>
+          <t>3,78; 10,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 17,56</t>
+          <t>10,76; 17,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 17,25</t>
+          <t>10,98; 17,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 19,77</t>
+          <t>13,33; 19,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,01</t>
+          <t>4,46; 8,96</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>11,87%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>15,62%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>9,98%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,08%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,73%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,36%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 16,09</t>
+          <t>9,59; 17,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,41; 20,55</t>
+          <t>7,12; 15,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 14,12</t>
+          <t>8,35; 16,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,45</t>
+          <t>2,05; 5,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 17,36</t>
+          <t>8,39; 16,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 15,15</t>
+          <t>11,7; 20,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 17,08</t>
+          <t>6,81; 14,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,6</t>
+          <t>4,41; 10,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,3</t>
+          <t>9,98; 15,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 16,32</t>
+          <t>10,51; 16,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 14,06</t>
+          <t>8,31; 14,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,55</t>
+          <t>3,87; 7,53</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>7,98%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>9,41%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>9,71%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,69</t>
+          <t>6,75; 10,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,61; 11,31</t>
+          <t>7,43; 11,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 11,52</t>
+          <t>8,53; 12,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,92</t>
+          <t>3,13; 5,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,43</t>
+          <t>6,51; 9,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 11,19</t>
+          <t>7,68; 11,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,72</t>
+          <t>7,9; 11,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,97</t>
+          <t>4,54; 7,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,01; 9,53</t>
+          <t>7,11; 9,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 10,73</t>
+          <t>8,13; 10,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,74; 11,61</t>
+          <t>8,8; 11,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,51</t>
+          <t>4,27; 6,48</t>
         </is>
       </c>
     </row>
